--- a/Excel/test.xlsx
+++ b/Excel/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\or\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\or\git\Hahot-Hameshulash\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>שם פרטי</t>
   </si>
@@ -45,6 +48,72 @@
   </si>
   <si>
     <t>ברדוגו</t>
+  </si>
+  <si>
+    <t>גיל</t>
+  </si>
+  <si>
+    <t>מין</t>
+  </si>
+  <si>
+    <t>עיסוק נוכחי</t>
+  </si>
+  <si>
+    <t>שימוש באלכוהול</t>
+  </si>
+  <si>
+    <t>שימוש בסמים</t>
+  </si>
+  <si>
+    <t>גורם נוסף</t>
+  </si>
+  <si>
+    <t>רישום פלילי</t>
+  </si>
+  <si>
+    <t>מס' מוסדות</t>
+  </si>
+  <si>
+    <t>קשר עם גורם נוסף</t>
+  </si>
+  <si>
+    <t>עיר מוצא</t>
+  </si>
+  <si>
+    <t>ז</t>
+  </si>
+  <si>
+    <t>עובד</t>
+  </si>
+  <si>
+    <t>כלל לא</t>
+  </si>
+  <si>
+    <t>עלם במרכז העיר</t>
+  </si>
+  <si>
+    <t>כן</t>
+  </si>
+  <si>
+    <t>לא</t>
+  </si>
+  <si>
+    <t>ניס</t>
+  </si>
+  <si>
+    <t>לומד</t>
+  </si>
+  <si>
+    <t>לעיתים קרובות</t>
+  </si>
+  <si>
+    <t>לעיתים רחוקות</t>
+  </si>
+  <si>
+    <t>קידום נוער</t>
+  </si>
+  <si>
+    <t>ירושלים</t>
   </si>
 </sst>
 </file>
@@ -69,9 +138,18 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -81,9 +159,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -99,6 +182,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="ארכיון"/>
+      <sheetName val="אינדקס מקור"/>
+      <sheetName val="שאילתות"/>
+      <sheetName val="עדכון נתונים"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection sqref="A1:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -409,7 +511,7 @@
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,30 +521,138 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>42736</v>
+      <c r="C2">
+        <v>1993</v>
+      </c>
+      <c r="D2">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
-        <v>32941</v>
+      <c r="C3">
+        <v>1990</v>
+      </c>
+      <c r="D3">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[--מרחב פתוח - מעקב צעירים 2017 - עותק לתכנות.xlsx]אינדקס מקור'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[--מרחב פתוח - מעקב צעירים 2017 - עותק לתכנות.xlsx]אינדקס מקור'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>